--- a/config/门诊有效数据.xlsx
+++ b/config/门诊有效数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wmm\审方测试用例\0731\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myproj\auditcenter_apitest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF195191-497A-4CCD-A186-EB0526028729}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD44535-623F-4C29-B743-CE4443433636}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4125" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="194">
   <si>
     <t>pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诊断（opt_diagnoses）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开处方必须传如诊断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,14 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>断言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>患者信息等哪些字段算是修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,10 +682,6 @@
   </si>
   <si>
     <t>会不会存在拿一个eno传多个患者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开处方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -808,10 +792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(理论上不允许不传业务时间)不入库视为无效数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有效，sf_out_patient，sf_his_patient各新增一条数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,31 +800,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现状</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库，且event_time取当前时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1基础上修改event_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不入库，视为相同数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -903,20 +863,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有效入库，红色数据入表sf_out_patient
-黑色数据入表sf_his_patient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效，入库，不是一次就诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">先不测 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前取的是3</t>
+    <t>此处需要断言处方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效。入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库，但是event_time为空视为无效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库，但是eno1不是一次就诊视为无效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效。入库，红色数据入表sf_out_patient（就诊字段）
+黑色数据入表sf_his_patient（基本字段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断（opt_diagnoses）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diag_date为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库，但是diag_date为空视为无效数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,6 +1125,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1531,11 +1510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182BBFE8-1E31-4C0E-A4C6-AA16CA19A34E}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1551,14 +1530,13 @@
     <col min="9" max="9" width="10.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="32.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="42.5" customWidth="1"/>
-    <col min="12" max="12" width="23.375" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="C1" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>55</v>
@@ -1576,23 +1554,20 @@
         <v>10</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="26"/>
@@ -1617,8 +1592,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32"/>
       <c r="C3" s="27"/>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -1641,8 +1616,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31"/>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="32"/>
       <c r="C4" s="27"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -1665,8 +1640,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="32"/>
       <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -1689,20 +1664,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="26">
@@ -1726,18 +1701,12 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="26">
         <v>2</v>
       </c>
@@ -1752,23 +1721,21 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="31"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="32"/>
       <c r="C11" s="26">
         <v>3</v>
       </c>
@@ -1786,16 +1753,16 @@
         <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="31"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="26">
         <v>4</v>
       </c>
@@ -1813,15 +1780,15 @@
         <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="26">
         <v>5</v>
       </c>
@@ -1839,21 +1806,21 @@
         <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C14" s="26">
         <v>6</v>
@@ -1868,372 +1835,288 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="3"/>
       <c r="I15" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="C16" s="27"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="C21" s="27"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C22" s="27"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="C23" s="27"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="C24" s="27"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="C25" s="27"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="C26" s="27"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="C27" s="27"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="C28" s="27"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="C29" s="27"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="C30" s="27"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="C31" s="27"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="3"/>
-      <c r="K35" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="24"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="29" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="24"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" t="s">
-        <v>34</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s">
-        <v>35</v>
-      </c>
-      <c r="K44" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="31"/>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2244,26 +2127,63 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="31"/>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
       </c>
       <c r="K48" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="31"/>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>60</v>
+      <c r="A50" s="33"/>
+      <c r="B50" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="3" t="s">
@@ -2276,62 +2196,63 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="32"/>
       <c r="D51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="32"/>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="30"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="3" t="s">
         <v>8</v>
       </c>
@@ -2339,127 +2260,129 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" t="s">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54" s="27"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="31"/>
-      <c r="D55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
+    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
       <c r="B56" s="31"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" t="s">
-        <v>4</v>
+      <c r="E56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="31"/>
       <c r="C57" s="27"/>
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="E57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58" s="27"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="K58"/>
-    </row>
     <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>60</v>
+      <c r="A59" s="33"/>
+      <c r="B59" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="3" t="s">
@@ -2472,64 +2395,64 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
         <v>8</v>
@@ -2538,297 +2461,201 @@
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A63" s="8"/>
+      <c r="C63" s="27"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="8"/>
       <c r="C64" s="27"/>
-      <c r="D64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31"/>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
       <c r="C65" s="27"/>
-      <c r="D65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="31"/>
+    </row>
+    <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
       <c r="C66" s="27"/>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="C67" s="27"/>
     </row>
-    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="C68" s="27"/>
     </row>
-    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="C69" s="27"/>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="C70" s="27"/>
     </row>
-    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="C71" s="27"/>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="C72" s="27"/>
     </row>
-    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="C73" s="27"/>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="C74" s="27"/>
     </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="C75" s="27"/>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="C76" s="27"/>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="C77" s="27"/>
     </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="C78" s="27"/>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="C79" s="27"/>
     </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="C80" s="27"/>
     </row>
-    <row r="81" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="C81" s="27"/>
     </row>
-    <row r="82" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="C82" s="27"/>
     </row>
-    <row r="83" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="C83" s="27"/>
     </row>
-    <row r="84" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="C84" s="27"/>
     </row>
-    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="C85" s="27"/>
     </row>
-    <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="C86" s="27"/>
     </row>
-    <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="C87" s="27"/>
     </row>
-    <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="C88" s="27"/>
     </row>
-    <row r="89" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="C89" s="27"/>
     </row>
-    <row r="90" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="C90" s="27"/>
     </row>
-    <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="C91" s="27"/>
     </row>
-    <row r="92" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="C92" s="27"/>
     </row>
-    <row r="93" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
-      <c r="C93" s="27"/>
-    </row>
-    <row r="94" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
-      <c r="C94" s="27"/>
-    </row>
-    <row r="95" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
-      <c r="C95" s="27"/>
-    </row>
-    <row r="96" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="C96" s="27"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
+      <c r="B95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="99" spans="1:10" ht="228" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
+    <mergeCell ref="B55:B58"/>
     <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A55:A62"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2840,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556AACFC-D582-4EDB-9B16-2B726D9AEB72}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
@@ -2892,7 +2719,7 @@
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2919,7 +2746,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
@@ -2946,7 +2773,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12" t="s">
         <v>83</v>
       </c>
@@ -2971,7 +2798,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="12" t="s">
         <v>83</v>
       </c>
@@ -2996,7 +2823,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3023,7 +2850,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +2875,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -3073,7 +2900,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3104,7 +2931,7 @@
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3129,7 +2956,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
@@ -3153,7 +2980,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
@@ -3178,7 +3005,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
@@ -3217,10 +3044,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3249,8 +3076,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
@@ -3277,8 +3104,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
@@ -3305,8 +3132,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
@@ -3333,8 +3160,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3363,8 +3190,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3391,8 +3218,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
@@ -3419,8 +3246,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
@@ -3512,10 +3339,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3538,8 +3365,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -3560,8 +3387,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
@@ -3582,8 +3409,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
@@ -3604,8 +3431,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="29" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3628,8 +3455,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3650,8 +3477,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3672,8 +3499,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3694,10 +3521,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3720,8 +3547,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3742,8 +3569,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3764,8 +3591,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3786,8 +3613,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -3810,8 +3637,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3832,8 +3659,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3854,8 +3681,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
@@ -4073,7 +3900,7 @@
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -4102,7 +3929,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
@@ -4129,7 +3956,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
@@ -4156,7 +3983,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -4183,7 +4010,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
@@ -4210,7 +4037,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
@@ -4237,7 +4064,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="12" t="s">
         <v>83</v>
       </c>
@@ -4264,7 +4091,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="12" t="s">
         <v>83</v>
       </c>
@@ -4291,7 +4118,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -4316,7 +4143,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="16" t="s">
         <v>8</v>
       </c>
@@ -4342,7 +4169,7 @@
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="19" t="s">
         <v>83</v>
       </c>
@@ -4370,7 +4197,7 @@
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -4393,7 +4220,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="16" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4242,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
@@ -4437,7 +4264,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="22" t="s">
         <v>8</v>
       </c>
@@ -4459,10 +4286,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4485,8 +4312,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
@@ -4507,8 +4334,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
@@ -4529,8 +4356,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
@@ -4551,8 +4378,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -4575,8 +4402,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
@@ -4597,8 +4424,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
@@ -4619,8 +4446,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
@@ -4641,10 +4468,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4667,8 +4494,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
@@ -4689,8 +4516,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
@@ -4711,8 +4538,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
@@ -4733,8 +4560,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -4757,8 +4584,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
@@ -4779,8 +4606,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
@@ -4801,8 +4628,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
@@ -4826,10 +4653,10 @@
       <c r="A37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4852,8 +4679,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4874,8 +4701,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -4896,8 +4723,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
@@ -4918,8 +4745,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4942,8 +4769,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
@@ -4964,8 +4791,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
@@ -4986,8 +4813,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
@@ -5088,11 +4915,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A38:A45"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B23"/>
@@ -5100,6 +4922,11 @@
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5147,10 +4974,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5160,25 +4987,25 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
